--- a/analyze/data/4_bots_1_GPT/summarize.xlsx
+++ b/analyze/data/4_bots_1_GPT/summarize.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Narrator Votes Averages" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Votes Not Narrator Averages" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Correct Votes Averages" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Winners Statistics" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -454,10 +455,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>55.55555555555554</v>
+        <v>53.33333333333333</v>
       </c>
       <c r="C2" t="n">
-        <v>13.88888888888889</v>
+        <v>9.999999999999998</v>
       </c>
     </row>
     <row r="3">
@@ -470,7 +471,7 @@
         <v>33.33333333333333</v>
       </c>
       <c r="C3" t="n">
-        <v>36.11111111111111</v>
+        <v>50.41666666666666</v>
       </c>
     </row>
     <row r="4">
@@ -480,10 +481,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>11.11111111111111</v>
+        <v>13.33333333333333</v>
       </c>
       <c r="C4" t="n">
-        <v>50</v>
+        <v>39.58333333333333</v>
       </c>
     </row>
   </sheetData>
@@ -524,10 +525,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>17.47474747474747</v>
+        <v>15.37995337995338</v>
       </c>
       <c r="C2" t="n">
-        <v>40.65656565656565</v>
+        <v>44.1899766899767</v>
       </c>
     </row>
   </sheetData>
@@ -568,10 +569,61 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>37.12121212121212</v>
+        <v>27.44755244755245</v>
       </c>
       <c r="C2" t="n">
-        <v>39.09511784511785</v>
+        <v>31.79845519977098</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Player</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Winner Percent</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>GPT</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Bot</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>100</v>
       </c>
     </row>
   </sheetData>
